--- a/Dữ liệu/Thiết kế database.xlsx
+++ b/Dữ liệu/Thiết kế database.xlsx
@@ -225,25 +225,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -532,7 +532,7 @@
   <dimension ref="D4:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,285 +543,250 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="9"/>
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="9"/>
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="N4" s="3" t="s">
+      <c r="L4" s="9"/>
+      <c r="N4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D5" s="9">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="H5" s="5" t="s">
+      <c r="F5" s="5"/>
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="5"/>
+      <c r="K5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="N5" s="5" t="s">
+      <c r="L5" s="5"/>
+      <c r="N5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D6" s="9">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="F6" s="5"/>
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="K6" s="5" t="s">
+      <c r="I6" s="5"/>
+      <c r="K6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="N6" s="5" t="s">
+      <c r="L6" s="5"/>
+      <c r="N6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D7" s="9">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="H7" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="K7" s="5" t="s">
+      <c r="I7" s="5"/>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="N7" s="5" t="s">
+      <c r="L7" s="5"/>
+      <c r="N7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D8" s="9">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="N8" s="5" t="s">
+      <c r="L8" s="5"/>
+      <c r="N8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D9" s="9">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="H9" s="5" t="s">
+      <c r="F9" s="5"/>
+      <c r="H9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="K9" s="5" t="s">
+      <c r="I9" s="5"/>
+      <c r="K9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="N9" s="5" t="s">
+      <c r="L9" s="5"/>
+      <c r="N9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="6"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D10" s="9">
+      <c r="D10" s="3">
         <v>6</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="5"/>
+      <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="K10" s="5" t="s">
+      <c r="I10" s="5"/>
+      <c r="K10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="N10" s="5" t="s">
+      <c r="L10" s="5"/>
+      <c r="N10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D11" s="9">
+      <c r="D11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="H11" s="7" t="s">
+      <c r="F11" s="5"/>
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="K11" s="5" t="s">
+      <c r="I11" s="7"/>
+      <c r="K11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="N11" s="7" t="s">
+      <c r="L11" s="5"/>
+      <c r="N11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="8"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D12" s="9">
+      <c r="D12" s="3">
         <v>8</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="K12" s="5" t="s">
+      <c r="F12" s="7"/>
+      <c r="K12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D13" s="9">
+      <c r="D13" s="3">
         <v>9</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D14" s="9">
+      <c r="D14" s="3">
         <v>10</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D15" s="9">
+      <c r="D15" s="3">
         <v>11</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="8"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="H17" s="3" t="s">
+      <c r="F17" s="9"/>
+      <c r="H17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="H18" s="5" t="s">
+      <c r="F18" s="5"/>
+      <c r="H18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="H19" s="7" t="s">
+      <c r="F19" s="7"/>
+      <c r="H19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E12:F12"/>
@@ -831,6 +796,41 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
